--- a/biology/Histoire de la zoologie et de la botanique/Albert_Gottfried_Dietrich/Albert_Gottfried_Dietrich.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Albert_Gottfried_Dietrich/Albert_Gottfried_Dietrich.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Albert Gottfried Dietrich est un botaniste allemand, né le 8 novembre 1795 à Dantzig et mort le 22 mai 1856 à Berlin.
 Il travaillait au jardin botanique de Berlin et enseignait à l’institut d’horticulture de Berlin-Schöneberg. Avec Christoph Friedrich Otto, il a édité le journal consacré aux jardins Allgemeine Gartenzeitung de 1833 à 1856. Il est l'auteur des 864 planches qui illustrent sa Flora regni Borussici.
@@ -512,7 +524,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Terminologie der phanerogamischen Pflanzen..., 1829.
 Flora regni Borussici : Flora des Königreichs Preussen oder Abbildung und Beschreibung der in Preussen wildwachsenden Pflanzen, 1833-1844.</t>
@@ -543,7 +557,9 @@
           <t>Hommage</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1953, Edgar Irmscher lui dédie un bégonia : Begonia dietrichiana.
 </t>
